--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662625.635468155</v>
+        <v>-665304.1826379839</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.42601631773687</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>87.99864535335035</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>269.2091728426423</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>140.389905409724</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>130.3755015964291</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>321.321598855492</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>31.9069220849253</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>28.78939540407857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>177.6232242571091</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>211.0829610786685</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>62.74488990764911</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>60.86538463674658</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.6183934507989</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>24.27150084979086</v>
+        <v>36.7473598592761</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922727</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>133.8107367464747</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>109.8058856274564</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.40545032729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>185.6920487814938</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389038</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>36.22494343870298</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>121.6761271205435</v>
+        <v>102.6244980900704</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576154</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>95.05806357631771</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.8209744842155</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002302</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652567</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1468.384375866707</v>
+        <v>945.2860654451872</v>
       </c>
       <c r="C2" t="n">
-        <v>1468.384375866707</v>
+        <v>875.158776235352</v>
       </c>
       <c r="D2" t="n">
-        <v>1110.118677259957</v>
+        <v>875.158776235352</v>
       </c>
       <c r="E2" t="n">
-        <v>724.3304246617126</v>
+        <v>875.158776235352</v>
       </c>
       <c r="F2" t="n">
-        <v>635.4429041027729</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4331,19 +4331,19 @@
         <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1487.244684735558</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1792.719790971143</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>2067.836010287778</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
         <v>2487.74530482193</v>
@@ -4361,19 +4361,19 @@
         <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V2" t="n">
-        <v>2194.618789397901</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="W2" t="n">
-        <v>1841.850134127787</v>
+        <v>2095.4909957462</v>
       </c>
       <c r="X2" t="n">
-        <v>1468.384375866707</v>
+        <v>1722.025237485121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1468.384375866707</v>
+        <v>1331.885905509309</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4413,13 +4413,13 @@
         <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234854</v>
+        <v>516.2561429807905</v>
       </c>
       <c r="M3" t="n">
-        <v>1039.200821018973</v>
+        <v>1157.279352600684</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1798.302562220578</v>
       </c>
       <c r="O3" t="n">
         <v>2037.107513972037</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.4977880830776</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C4" t="n">
-        <v>198.6898028207301</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D4" t="n">
-        <v>198.6898028207301</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521424</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>884.3189032968623</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="U4" t="n">
-        <v>595.1822762889644</v>
+        <v>955.098724281582</v>
       </c>
       <c r="V4" t="n">
-        <v>340.4977880830776</v>
+        <v>700.4142360756952</v>
       </c>
       <c r="W4" t="n">
-        <v>340.4977880830776</v>
+        <v>700.4142360756952</v>
       </c>
       <c r="X4" t="n">
-        <v>340.4977880830776</v>
+        <v>700.4142360756952</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.4977880830776</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1850.62427080675</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="C5" t="n">
-        <v>1481.661753866338</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="D5" t="n">
-        <v>1481.661753866338</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="E5" t="n">
-        <v>1095.873501268094</v>
+        <v>560.505444488796</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>149.5195396991884</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477384</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>2237.224110870871</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X5" t="n">
-        <v>2237.224110870871</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="Y5" t="n">
-        <v>2237.224110870871</v>
+        <v>946.2936970870403</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682816</v>
+        <v>463.068411698045</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845964</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.8162356285838</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="C7" t="n">
-        <v>80.88005270067686</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="D7" t="n">
-        <v>80.88005270067686</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="E7" t="n">
-        <v>80.88005270067686</v>
+        <v>304.2359235409332</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.049095695859</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2468305003709</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2468305003709</v>
+        <v>711.6428726784548</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2572796023536</v>
+        <v>483.6533217804374</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.4647004588235</v>
+        <v>304.2359235409332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1014.933924946744</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="C8" t="n">
-        <v>645.9714080063322</v>
+        <v>1281.859825751279</v>
       </c>
       <c r="D8" t="n">
-        <v>645.9714080063322</v>
+        <v>923.5941271445286</v>
       </c>
       <c r="E8" t="n">
-        <v>645.9714080063322</v>
+        <v>537.8058745462843</v>
       </c>
       <c r="F8" t="n">
-        <v>432.7562958056569</v>
+        <v>530.8603737970808</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>115.1785319972128</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>115.1785319972128</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4823,31 +4823,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.76817854206</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W8" t="n">
-        <v>1774.999523271945</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X8" t="n">
-        <v>1401.533765010866</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1401.533765010866</v>
+        <v>1650.822342691691</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258288</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421436</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.302981905902</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1554.712543231644</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1815.732952862747</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.6021744867476</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C10" t="n">
-        <v>366.6659915588407</v>
+        <v>558.1997223172232</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6659915588407</v>
+        <v>408.0830829048874</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>260.1699893224943</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609303</v>
+        <v>113.2800418245839</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
         <v>77.98108068080549</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1455.449939395495</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1455.449939395495</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1455.449939395495</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1455.449939395495</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1166.032769358535</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>938.0432184605174</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>717.2506393169873</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.2476448606607</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>697.5276345712012</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345712012</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888081</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908977</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>172.349019141113</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2269.002343845333</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.400878868273</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2259.395357538348</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1970.320130882546</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1715.635642676659</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1426.218472639698</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2410.372231621975</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900017</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6254,7 +6254,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6309,19 +6309,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2350.944837543576</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.343372566517</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,16 +7257,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,19 +7807,19 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7979,22 +7979,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>147.9929666331142</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>221.8231992374235</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>109.2189851593229</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660668</v>
       </c>
       <c r="N3" t="n">
-        <v>84.69108553970699</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>36.65812069213285</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>35.38972270187054</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>200.7458546176086</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326896</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>295.8468754532707</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>318.8774003883611</v>
+        <v>141.4375187871822</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.85691568890383</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>142.9753202488381</v>
+        <v>130.4994612393517</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>71.22040037418819</v>
+        <v>181.0262860016455</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>31.71340154579448</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>144.8013425629416</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>26.93934589766884</v>
+        <v>45.99097492814197</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>85.96822242532689</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.7636788678793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254691</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26320,22 +26320,22 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="N2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26366,7 +26366,7 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.02657233354432e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150312.1748978671</v>
+        <v>150312.174897867</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85507.33252291678</v>
+        <v>85507.33252291684</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,7 +26424,7 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695011</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26433,28 +26433,28 @@
         <v>6287.480531695062</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695061</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695083</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478855</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907264.223169837</v>
+        <v>-907589.5682601189</v>
       </c>
       <c r="C6" t="n">
         <v>-148999.6729173649</v>
       </c>
       <c r="D6" t="n">
-        <v>23764.6868725274</v>
+        <v>23764.68687252745</v>
       </c>
       <c r="E6" t="n">
-        <v>-366154.8981943511</v>
+        <v>-366189.6361197868</v>
       </c>
       <c r="F6" t="n">
-        <v>134733.9695513998</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="G6" t="n">
-        <v>134733.9695513995</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="H6" t="n">
-        <v>134733.9695513995</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="I6" t="n">
-        <v>134733.9695513996</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="J6" t="n">
-        <v>-34680.04727464844</v>
+        <v>-34714.78520008408</v>
       </c>
       <c r="K6" t="n">
-        <v>134733.9695513996</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="L6" t="n">
-        <v>134733.9695513996</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="M6" t="n">
-        <v>-21442.09958728627</v>
+        <v>-21442.09958728602</v>
       </c>
       <c r="N6" t="n">
         <v>128870.075310581</v>
       </c>
       <c r="O6" t="n">
-        <v>128870.0753105809</v>
+        <v>128870.075310581</v>
       </c>
       <c r="P6" t="n">
-        <v>128870.075310581</v>
+        <v>128870.0753105811</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.5332154169304e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203976</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.5332154169304e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.5332154169304e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>265.4385269545292</v>
       </c>
       <c r="G2" t="n">
-        <v>143.0785658524018</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>155.8697591413899</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>85.55444688621947</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>379.618101296944</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>116.6316526188527</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>40.96142909498568</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>195.7930846630429</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.090675540030617</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28059,7 +28059,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>4.866775883292206</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.901448969749773e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.856737400084967e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>535.8585467435948</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>235.5705495535876</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,19 +33977,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,22 +34699,22 @@
         <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
+        <v>447.0541449741273</v>
+      </c>
+      <c r="N2" t="n">
         <v>647.4981915352464</v>
-      </c>
-      <c r="N2" t="n">
-        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>424.1508025597502</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
         <v>103.2802639586414</v>
@@ -34781,16 +34781,16 @@
         <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>320.9269379399603</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>372.9071162804475</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>225.2050796852769</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>429.7428149500951</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
@@ -35258,19 +35258,19 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>570.7518035997555</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352463</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>425.7606191871907</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>300.6896499849021</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>393.2623022991504</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>92.97430510914316</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
